--- a/tests/eindhoven-500/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_middelhoog.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_middelhoog.xlsx
@@ -7221,7 +7221,7 @@
         <v>8491.537940338503</v>
       </c>
       <c r="C264">
-        <v>53050.01993553524</v>
+        <v>53050.01993553525</v>
       </c>
       <c r="D264">
         <v>6970.941122910473</v>
@@ -7233,7 +7233,7 @@
         <v>11373.36715666317</v>
       </c>
       <c r="G264">
-        <v>53392.94540648512</v>
+        <v>53392.94540648513</v>
       </c>
       <c r="H264">
         <v>53754.16227135154</v>
@@ -7299,7 +7299,7 @@
         <v>8491.537940338503</v>
       </c>
       <c r="C267">
-        <v>53050.01993553524</v>
+        <v>53050.01993553525</v>
       </c>
       <c r="D267">
         <v>6970.941122910473</v>
@@ -11225,22 +11225,22 @@
         <v>3106.268256132461</v>
       </c>
       <c r="C418">
-        <v>41329.71166525492</v>
+        <v>41329.71166525493</v>
       </c>
       <c r="D418">
         <v>3519.983464772141</v>
       </c>
       <c r="E418">
-        <v>41559.97336366143</v>
+        <v>41559.97336366144</v>
       </c>
       <c r="F418">
         <v>4973.76025105795</v>
       </c>
       <c r="G418">
-        <v>41608.65381416308</v>
+        <v>41608.65381416309</v>
       </c>
       <c r="H418">
-        <v>41755.9782086311</v>
+        <v>41755.97820863111</v>
       </c>
     </row>
     <row r="419" spans="1:8">
